--- a/biology/Botanique/Talinaceae/Talinaceae.xlsx
+++ b/biology/Botanique/Talinaceae/Talinaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Talinaceae sont une famille végétale introduite par l'Angiosperm Phylogeny Website.
 Ce sont des plantes herbacées (quelques sous-arbrisseaux) vivaces, caulescentes, glabres à feuilles alternes, à racines tubéreuses, originaires des zones tempérées à tropicales.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Talinum dont il n'est donné aucune explication dans la publication originale, mais qui peut être dérivé de tali, nom sénégalais traditionnellement utilisé pour un Erythrophleum (Fabaceae). Cependant l'origine du mot est obscure et peut avoir été dérivé du grec ταλεία / taleia, « floraison luxuriante »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Talinum dont il n'est donné aucune explication dans la publication originale, mais qui peut être dérivé de tali, nom sénégalais traditionnellement utilisé pour un Erythrophleum (Fabaceae). Cependant l'origine du mot est obscure et peut avoir été dérivé du grec ταλεία / taleia, « floraison luxuriante ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Talinaceae comprend deux genres Talinella et Talinum qui étaient situés dans la famille Portulacaceae par la classification phylogénétique APG II (2003)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Talinaceae comprend deux genres Talinella et Talinum qui étaient situés dans la famille Portulacaceae par la classification phylogénétique APG II (2003).
 Talinella est quelquefois considéré comme contenu dans Talinum.
 La taxinomie et la phylogénie de cette famille sont incertaines.
 </t>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (4 mai 2010)[3] et GRIN            (4 mai 2010)[4]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (4 mai 2010) et GRIN            (4 mai 2010):
 genre Talinum</t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (4 mai 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (4 mai 2010) :
 genre Talinum
 Talinum aurantiacum
 Talinum caffrum
@@ -620,7 +640,7 @@
 Talinum polygaloides
 Talinum portulacifolium
 Talinum punae
-Selon GRIN            (4 mai 2010)[4] :
+Selon GRIN            (4 mai 2010) :
 genre Talinum
 Talinum fruticosum (L.) Juss.
 Talinum paniculatum (Jacq.) Gaertn.</t>
